--- a/Team-Data/2007-08/1-16-2007-08.xlsx
+++ b/Team-Data/2007-08/1-16-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,49 +733,49 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.514</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="J2" t="n">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.445</v>
+        <v>0.447</v>
       </c>
       <c r="L2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M2" t="n">
         <v>11.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.312</v>
+        <v>0.316</v>
       </c>
       <c r="O2" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="P2" t="n">
         <v>28.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R2" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
         <v>29.8</v>
@@ -717,43 +784,43 @@
         <v>41.8</v>
       </c>
       <c r="U2" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V2" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W2" t="n">
         <v>8.1</v>
       </c>
       <c r="X2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA2" t="n">
         <v>22.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.8</v>
+        <v>95.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
         <v>4</v>
@@ -765,7 +832,7 @@
         <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
         <v>30</v>
@@ -783,7 +850,7 @@
         <v>5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR2" t="n">
         <v>10</v>
@@ -792,19 +859,19 @@
         <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY2" t="n">
         <v>18</v>
@@ -813,10 +880,10 @@
         <v>22</v>
       </c>
       <c r="BA2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>0.838</v>
+        <v>0.833</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -869,43 +936,43 @@
         <v>74.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.468</v>
+        <v>0.469</v>
       </c>
       <c r="L3" t="n">
         <v>7.2</v>
       </c>
       <c r="M3" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.37</v>
+        <v>0.374</v>
       </c>
       <c r="O3" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="P3" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.762</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T3" t="n">
         <v>41.5</v>
       </c>
       <c r="U3" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V3" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
         <v>4.4</v>
@@ -914,10 +981,10 @@
         <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB3" t="n">
         <v>98.3</v>
@@ -926,7 +993,7 @@
         <v>11.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -953,10 +1020,10 @@
         <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
@@ -965,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>28</v>
@@ -974,16 +1041,16 @@
         <v>8</v>
       </c>
       <c r="AT3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
@@ -992,10 +1059,10 @@
         <v>14</v>
       </c>
       <c r="AZ3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB3" t="n">
         <v>13</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
         <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>0.395</v>
+        <v>0.378</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
@@ -1048,31 +1115,31 @@
         <v>35.3</v>
       </c>
       <c r="J4" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L4" t="n">
         <v>6.4</v>
       </c>
       <c r="M4" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N4" t="n">
         <v>0.368</v>
       </c>
       <c r="O4" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P4" t="n">
         <v>26.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7</v>
+        <v>0.696</v>
       </c>
       <c r="R4" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S4" t="n">
         <v>29.4</v>
@@ -1081,10 +1148,10 @@
         <v>40.4</v>
       </c>
       <c r="U4" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V4" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W4" t="n">
         <v>7.7</v>
@@ -1093,31 +1160,31 @@
         <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1126,10 +1193,10 @@
         <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
@@ -1138,13 +1205,13 @@
         <v>16</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
         <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
         <v>30</v>
@@ -1156,13 +1223,13 @@
         <v>23</v>
       </c>
       <c r="AT4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW4" t="n">
         <v>13</v>
@@ -1174,7 +1241,7 @@
         <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA4" t="n">
         <v>12</v>
@@ -1183,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -1212,103 +1279,103 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
         <v>22</v>
       </c>
       <c r="G5" t="n">
-        <v>0.405</v>
+        <v>0.389</v>
       </c>
       <c r="H5" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>35.7</v>
       </c>
       <c r="J5" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.422</v>
+        <v>0.418</v>
       </c>
       <c r="L5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.336</v>
+        <v>0.33</v>
       </c>
       <c r="O5" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P5" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R5" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="S5" t="n">
         <v>29.5</v>
       </c>
       <c r="T5" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U5" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG5" t="n">
         <v>22</v>
-      </c>
-      <c r="V5" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-3.1</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1320,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO5" t="n">
         <v>25</v>
@@ -1329,7 +1396,7 @@
         <v>24</v>
       </c>
       <c r="AQ5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1341,16 +1408,16 @@
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
         <v>10</v>
       </c>
       <c r="AW5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1362,10 +1429,10 @@
         <v>18</v>
       </c>
       <c r="BB5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -1472,22 +1539,22 @@
         <v>-2.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
         <v>14</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
@@ -1505,13 +1572,13 @@
         <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="n">
         <v>2</v>
@@ -1526,10 +1593,10 @@
         <v>27</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX6" t="n">
         <v>20</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>3</v>
@@ -1684,13 +1751,13 @@
         <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO7" t="n">
         <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1702,10 +1769,10 @@
         <v>10</v>
       </c>
       <c r="AT7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1723,7 +1790,7 @@
         <v>21</v>
       </c>
       <c r="BA7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -1836,19 +1903,19 @@
         <v>2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>8</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT8" t="n">
         <v>2</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1902,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="AZ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2042,7 +2109,7 @@
         <v>9</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
         <v>22</v>
@@ -2057,7 +2124,7 @@
         <v>18</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR9" t="n">
         <v>17</v>
@@ -2078,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>0.575</v>
+        <v>0.59</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2140,64 +2207,64 @@
         <v>40.1</v>
       </c>
       <c r="J10" t="n">
-        <v>89.09999999999999</v>
+        <v>89</v>
       </c>
       <c r="K10" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L10" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O10" t="n">
-        <v>18.6</v>
+        <v>18.3</v>
       </c>
       <c r="P10" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.739</v>
+        <v>0.738</v>
       </c>
       <c r="R10" t="n">
         <v>12.4</v>
       </c>
       <c r="S10" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>42.3</v>
+        <v>42.5</v>
       </c>
       <c r="U10" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="V10" t="n">
         <v>13.8</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X10" t="n">
         <v>4.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.5</v>
+        <v>108.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2230,52 +2297,52 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO10" t="n">
         <v>17</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
       </c>
       <c r="AQ10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR10" t="n">
         <v>6</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
         <v>22</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>1.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -2403,7 +2470,7 @@
         <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>12</v>
@@ -2412,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
@@ -2421,7 +2488,7 @@
         <v>27</v>
       </c>
       <c r="AQ11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR11" t="n">
         <v>7</v>
@@ -2433,31 +2500,31 @@
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY11" t="n">
         <v>8</v>
       </c>
       <c r="AZ11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB11" t="n">
         <v>20</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.45</v>
+        <v>0.436</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,73 +2571,73 @@
         <v>38.4</v>
       </c>
       <c r="J12" t="n">
-        <v>86.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L12" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.754</v>
+        <v>0.746</v>
       </c>
       <c r="R12" t="n">
         <v>11.8</v>
       </c>
       <c r="S12" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="T12" t="n">
-        <v>45.1</v>
+        <v>44.8</v>
       </c>
       <c r="U12" t="n">
         <v>22.9</v>
       </c>
       <c r="V12" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="W12" t="n">
         <v>7.8</v>
       </c>
       <c r="X12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.6</v>
+        <v>103.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.4</v>
+        <v>-1.6</v>
       </c>
       <c r="AD12" t="n">
         <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
         <v>19</v>
@@ -2591,52 +2658,52 @@
         <v>4</v>
       </c>
       <c r="AM12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>19</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>15</v>
       </c>
       <c r="AR12" t="n">
         <v>13</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
         <v>5</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>30</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2816,7 @@
         <v>30</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF13" t="n">
         <v>22</v>
@@ -2788,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="AR13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS13" t="n">
         <v>7</v>
@@ -2803,13 +2870,13 @@
         <v>11</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX13" t="n">
         <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
         <v>19</v>
@@ -2818,7 +2885,7 @@
         <v>15</v>
       </c>
       <c r="BB13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2976,19 +3043,19 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
         <v>12</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,10 +3189,10 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ15" t="n">
         <v>14</v>
@@ -3140,16 +3207,16 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
@@ -3161,7 +3228,7 @@
         <v>21</v>
       </c>
       <c r="AU15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
@@ -3170,7 +3237,7 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" t="n">
-        <v>0.211</v>
+        <v>0.216</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3244,7 +3311,7 @@
         <v>13.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O16" t="n">
         <v>18.4</v>
@@ -3253,13 +3320,13 @@
         <v>26.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.701</v>
+        <v>0.7</v>
       </c>
       <c r="R16" t="n">
         <v>9.4</v>
       </c>
       <c r="S16" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T16" t="n">
         <v>38.6</v>
@@ -3271,7 +3338,7 @@
         <v>15.2</v>
       </c>
       <c r="W16" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
         <v>4.9</v>
@@ -3286,13 +3353,13 @@
         <v>22.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>-6.7</v>
+        <v>-6</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
@@ -3304,7 +3371,7 @@
         <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>24</v>
@@ -3316,7 +3383,7 @@
         <v>10</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM16" t="n">
         <v>26</v>
@@ -3325,19 +3392,19 @@
         <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3346,10 +3413,10 @@
         <v>24</v>
       </c>
       <c r="AV16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW16" t="n">
         <v>15</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>16</v>
       </c>
       <c r="AX16" t="n">
         <v>16</v>
@@ -3361,13 +3428,13 @@
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
         <v>23</v>
       </c>
       <c r="G17" t="n">
-        <v>0.41</v>
+        <v>0.395</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J17" t="n">
-        <v>80.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.451</v>
+        <v>0.453</v>
       </c>
       <c r="L17" t="n">
         <v>5.4</v>
@@ -3426,7 +3493,7 @@
         <v>15.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="O17" t="n">
         <v>16.8</v>
@@ -3435,31 +3502,31 @@
         <v>22.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R17" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="S17" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="T17" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="U17" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V17" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="W17" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="X17" t="n">
         <v>4.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Z17" t="n">
         <v>21.8</v>
@@ -3468,13 +3535,13 @@
         <v>20.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-5.4</v>
+        <v>-5.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -3483,19 +3550,19 @@
         <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3504,7 +3571,7 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
         <v>26</v>
@@ -3513,22 +3580,22 @@
         <v>25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AW17" t="n">
         <v>20</v>
@@ -3537,7 +3604,7 @@
         <v>18</v>
       </c>
       <c r="AY17" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
         <v>20</v>
@@ -3546,7 +3613,7 @@
         <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC17" t="n">
         <v>26</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3680,13 +3747,13 @@
         <v>25</v>
       </c>
       <c r="AL18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN18" t="n">
         <v>22</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3701,16 +3768,16 @@
         <v>5</v>
       </c>
       <c r="AS18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
         <v>18</v>
@@ -3728,7 +3795,7 @@
         <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="n">
         <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" t="n">
-        <v>0.474</v>
+        <v>0.486</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="J19" t="n">
-        <v>77</v>
+        <v>76.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
@@ -3790,28 +3857,28 @@
         <v>17</v>
       </c>
       <c r="N19" t="n">
-        <v>0.325</v>
+        <v>0.323</v>
       </c>
       <c r="O19" t="n">
         <v>20.6</v>
       </c>
       <c r="P19" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.716</v>
+        <v>0.718</v>
       </c>
       <c r="R19" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S19" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="T19" t="n">
         <v>41.5</v>
       </c>
       <c r="U19" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V19" t="n">
         <v>15.7</v>
@@ -3826,31 +3893,31 @@
         <v>4.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>93</v>
+        <v>92.7</v>
       </c>
       <c r="AC19" t="n">
         <v>-4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,10 +3929,10 @@
         <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN19" t="n">
         <v>29</v>
@@ -3877,16 +3944,16 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
@@ -3895,7 +3962,7 @@
         <v>23</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
@@ -3904,13 +3971,13 @@
         <v>6</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BC19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -3942,58 +4009,58 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" t="n">
         <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.676</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
       <c r="J20" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L20" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="M20" t="n">
         <v>20.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.37</v>
+        <v>0.365</v>
       </c>
       <c r="O20" t="n">
         <v>15.5</v>
       </c>
       <c r="P20" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.786</v>
+        <v>0.788</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="T20" t="n">
-        <v>42.7</v>
+        <v>42.4</v>
       </c>
       <c r="U20" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="V20" t="n">
         <v>12.6</v>
@@ -4002,46 +4069,46 @@
         <v>7.7</v>
       </c>
       <c r="X20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y20" t="n">
         <v>4.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="AA20" t="n">
         <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>98.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI20" t="n">
         <v>8</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>7</v>
       </c>
       <c r="AJ20" t="n">
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4050,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4062,16 +4129,16 @@
         <v>5</v>
       </c>
       <c r="AR20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS20" t="n">
         <v>14</v>
       </c>
       <c r="AT20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
@@ -4086,13 +4153,13 @@
         <v>11</v>
       </c>
       <c r="AZ20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA20" t="n">
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC20" t="n">
         <v>8</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.316</v>
+        <v>0.297</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,67 +4209,67 @@
         <v>35.1</v>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L21" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M21" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N21" t="n">
-        <v>0.341</v>
+        <v>0.338</v>
       </c>
       <c r="O21" t="n">
-        <v>18.6</v>
+        <v>18.3</v>
       </c>
       <c r="P21" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.705</v>
+        <v>0.7</v>
       </c>
       <c r="R21" t="n">
         <v>12.7</v>
       </c>
       <c r="S21" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T21" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U21" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="V21" t="n">
         <v>15.5</v>
       </c>
       <c r="W21" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.2</v>
+        <v>-6.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4229,19 +4296,19 @@
         <v>20</v>
       </c>
       <c r="AM21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AP21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR21" t="n">
         <v>4</v>
@@ -4250,13 +4317,13 @@
         <v>25</v>
       </c>
       <c r="AT21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
         <v>27</v>
@@ -4265,19 +4332,19 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA21" t="n">
         <v>17</v>
       </c>
       <c r="BB21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" t="n">
         <v>24</v>
       </c>
       <c r="F22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.585</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
@@ -4324,40 +4391,40 @@
         <v>36.7</v>
       </c>
       <c r="J22" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L22" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O22" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="P22" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S22" t="n">
         <v>33.1</v>
       </c>
       <c r="T22" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U22" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="V22" t="n">
         <v>15.2</v>
@@ -4372,16 +4439,16 @@
         <v>4.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.5</v>
+        <v>103.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4393,7 +4460,7 @@
         <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH22" t="n">
         <v>6</v>
@@ -4420,25 +4487,25 @@
         <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
         <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AW22" t="n">
         <v>25</v>
@@ -4450,13 +4517,13 @@
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
       </c>
       <c r="BB22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC22" t="n">
         <v>9</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -4566,28 +4633,28 @@
         <v>-2.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="n">
         <v>25</v>
       </c>
       <c r="AG23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH23" t="n">
         <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -4599,19 +4666,19 @@
         <v>27</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="n">
         <v>15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR23" t="n">
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT23" t="n">
         <v>12</v>
@@ -4620,7 +4687,7 @@
         <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
         <v>6</v>
@@ -4629,7 +4696,7 @@
         <v>10</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>4.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4766,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
         <v>2</v>
@@ -4775,7 +4842,7 @@
         <v>3</v>
       </c>
       <c r="AM24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN24" t="n">
         <v>4</v>
@@ -4814,10 +4881,10 @@
         <v>4</v>
       </c>
       <c r="AZ24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -4852,61 +4919,61 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" t="n">
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.605</v>
+        <v>0.622</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
       </c>
       <c r="I25" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J25" t="n">
-        <v>78.2</v>
+        <v>78.5</v>
       </c>
       <c r="K25" t="n">
         <v>0.461</v>
       </c>
       <c r="L25" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M25" t="n">
         <v>17.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.396</v>
+        <v>0.394</v>
       </c>
       <c r="O25" t="n">
         <v>18.1</v>
       </c>
       <c r="P25" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="R25" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S25" t="n">
         <v>30.4</v>
       </c>
       <c r="T25" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U25" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V25" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="W25" t="n">
         <v>5.6</v>
@@ -4918,19 +4985,19 @@
         <v>3.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>97.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4963,16 +5030,16 @@
         <v>2</v>
       </c>
       <c r="AO25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AS25" t="n">
         <v>17</v>
@@ -4981,10 +5048,10 @@
         <v>26</v>
       </c>
       <c r="AU25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW25" t="n">
         <v>30</v>
@@ -4996,16 +5063,16 @@
         <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA25" t="n">
         <v>16</v>
       </c>
       <c r="BB25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -5034,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" t="n">
-        <v>0.405</v>
+        <v>0.417</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
         <v>0.456</v>
       </c>
       <c r="L26" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M26" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.361</v>
+        <v>0.357</v>
       </c>
       <c r="O26" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="P26" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.795</v>
+        <v>0.796</v>
       </c>
       <c r="R26" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S26" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="T26" t="n">
-        <v>39.2</v>
+        <v>39.4</v>
       </c>
       <c r="U26" t="n">
         <v>17.9</v>
@@ -5097,52 +5164,52 @@
         <v>3.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3.4</v>
+        <v>-2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="n">
         <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH26" t="n">
         <v>17</v>
       </c>
       <c r="AI26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>24</v>
       </c>
       <c r="AK26" t="n">
         <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
         <v>6</v>
@@ -5154,10 +5221,10 @@
         <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5166,7 +5233,7 @@
         <v>29</v>
       </c>
       <c r="AV26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW26" t="n">
         <v>8</v>
@@ -5175,19 +5242,19 @@
         <v>28</v>
       </c>
       <c r="AY26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ26" t="n">
         <v>24</v>
       </c>
       <c r="BA26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>6</v>
       </c>
       <c r="AD27" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF27" t="n">
         <v>3</v>
@@ -5336,7 +5403,7 @@
         <v>14</v>
       </c>
       <c r="AR27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS27" t="n">
         <v>13</v>
@@ -5345,7 +5412,7 @@
         <v>18</v>
       </c>
       <c r="AU27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV27" t="n">
         <v>3</v>
@@ -5354,7 +5421,7 @@
         <v>26</v>
       </c>
       <c r="AX27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>15</v>
@@ -5366,7 +5433,7 @@
         <v>20</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>4</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28" t="n">
-        <v>0.237</v>
+        <v>0.243</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
@@ -5419,37 +5486,37 @@
         <v>85.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L28" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M28" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.354</v>
+        <v>0.35</v>
       </c>
       <c r="O28" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P28" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R28" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S28" t="n">
         <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="U28" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="V28" t="n">
         <v>16.6</v>
@@ -5458,40 +5525,40 @@
         <v>6.7</v>
       </c>
       <c r="X28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>5.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7.9</v>
+        <v>-7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
       </c>
       <c r="AF28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG28" t="n">
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
         <v>3</v>
@@ -5506,7 +5573,7 @@
         <v>27</v>
       </c>
       <c r="AN28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO28" t="n">
         <v>22</v>
@@ -5515,10 +5582,10 @@
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5527,25 +5594,25 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AV28" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AW28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ28" t="n">
         <v>12</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BB28" t="n">
         <v>18</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -5580,37 +5647,37 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" t="n">
         <v>18</v>
       </c>
       <c r="G29" t="n">
-        <v>0.538</v>
+        <v>0.526</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J29" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.453</v>
+        <v>0.451</v>
       </c>
       <c r="L29" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M29" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.407</v>
+        <v>0.406</v>
       </c>
       <c r="O29" t="n">
         <v>15.6</v>
@@ -5619,7 +5686,7 @@
         <v>19.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.805</v>
+        <v>0.803</v>
       </c>
       <c r="R29" t="n">
         <v>10.3</v>
@@ -5631,55 +5698,55 @@
         <v>41.1</v>
       </c>
       <c r="U29" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="V29" t="n">
         <v>11.8</v>
       </c>
       <c r="W29" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y29" t="n">
         <v>4.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA29" t="n">
         <v>17.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="n">
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5700,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AS29" t="n">
         <v>15</v>
@@ -5709,19 +5776,19 @@
         <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AX29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ29" t="n">
         <v>10</v>
@@ -5730,10 +5797,10 @@
         <v>30</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>4.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>11</v>
       </c>
       <c r="AF30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
         <v>12</v>
@@ -5876,13 +5943,13 @@
         <v>4</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS30" t="n">
         <v>29</v>
@@ -5900,7 +5967,7 @@
         <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>2.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
@@ -6037,7 +6104,7 @@
         <v>7</v>
       </c>
       <c r="AI31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
@@ -6070,13 +6137,13 @@
         <v>16</v>
       </c>
       <c r="AT31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU31" t="n">
         <v>26</v>
       </c>
       <c r="AV31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW31" t="n">
         <v>14</v>
@@ -6091,10 +6158,10 @@
         <v>4</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-16-2007-08</t>
+          <t>2008-01-16</t>
         </is>
       </c>
     </row>
